--- a/jyx2/Assets/Mods/jhz/Configs/小宝商店.xlsx
+++ b/jyx2/Assets/Mods/jhz/Configs/小宝商店.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="main"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -43,9 +43,6 @@
     <t>ShopItems-Id,Count,Price</t>
   </si>
   <si>
-    <t>7,1000,1|104,1000,1|16,1000,1|111,1,1|59,1,1|1001,1000,1|1002,1000,1|1003,1000,1</t>
-  </si>
-  <si>
     <t>1,1000,20|8,1000,150|36,1,500|118,1,400|85,1,600</t>
   </si>
   <si>
@@ -57,17 +54,20 @@
   <si>
     <t>19,1000,250|13,1000,50|28,1,400|119,1,500|51,1,300</t>
   </si>
+  <si>
+    <t>7,1000,1|104,1000,1|16,1000,1|111,1,1|59,1,1|1001,1000,2|1002,1000,2|1003,1000,2|1004,1000,5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -88,6 +88,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,52 +125,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -174,10 +173,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -215,71 +214,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -307,7 +306,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -330,11 +329,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -343,13 +342,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -359,7 +358,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -368,7 +367,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -377,7 +376,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -385,10 +384,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -459,63 +458,19 @@
   </sheetPr>
   <dimension ref="A1:AX204"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="67.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="50" width="13.59765625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +526,7 @@
       <c r="AW1" s="4"/>
       <c r="AX1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -629,7 +584,7 @@
       <c r="AW2" s="8"/>
       <c r="AX2" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -687,7 +642,7 @@
       <c r="AW3" s="8"/>
       <c r="AX3" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -745,12 +700,12 @@
       <c r="AW4" s="4"/>
       <c r="AX4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C5" s="10">
         <v>16</v>
@@ -803,12 +758,12 @@
       <c r="AW5" s="8"/>
       <c r="AX5" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10">
         <v>14</v>
@@ -861,12 +816,12 @@
       <c r="AW6" s="8"/>
       <c r="AX6" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>40</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="10">
         <v>20</v>
@@ -919,12 +874,12 @@
       <c r="AW7" s="8"/>
       <c r="AX7" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
         <v>60</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10">
         <v>12</v>
@@ -977,12 +932,12 @@
       <c r="AW8" s="8"/>
       <c r="AX8" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>61</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="10">
         <v>9</v>
@@ -1035,7 +990,7 @@
       <c r="AW9" s="8"/>
       <c r="AX9" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
@@ -1087,7 +1042,7 @@
       <c r="AW10" s="8"/>
       <c r="AX10" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="7"/>
@@ -1139,7 +1094,7 @@
       <c r="AW11" s="8"/>
       <c r="AX11" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
@@ -1191,7 +1146,7 @@
       <c r="AW12" s="8"/>
       <c r="AX12" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="7"/>
@@ -1243,7 +1198,7 @@
       <c r="AW13" s="8"/>
       <c r="AX13" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="7"/>
@@ -1295,7 +1250,7 @@
       <c r="AW14" s="8"/>
       <c r="AX14" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="7"/>
@@ -1347,7 +1302,7 @@
       <c r="AW15" s="8"/>
       <c r="AX15" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
@@ -1399,7 +1354,7 @@
       <c r="AW16" s="8"/>
       <c r="AX16" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
@@ -1451,7 +1406,7 @@
       <c r="AW17" s="8"/>
       <c r="AX17" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
@@ -1503,7 +1458,7 @@
       <c r="AW18" s="8"/>
       <c r="AX18" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
@@ -1555,7 +1510,7 @@
       <c r="AW19" s="8"/>
       <c r="AX19" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="7"/>
@@ -1607,7 +1562,7 @@
       <c r="AW20" s="8"/>
       <c r="AX20" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="7"/>
@@ -1659,7 +1614,7 @@
       <c r="AW21" s="8"/>
       <c r="AX21" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
@@ -1711,7 +1666,7 @@
       <c r="AW22" s="8"/>
       <c r="AX22" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
@@ -1763,7 +1718,7 @@
       <c r="AW23" s="8"/>
       <c r="AX23" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
@@ -1815,7 +1770,7 @@
       <c r="AW24" s="8"/>
       <c r="AX24" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
@@ -1867,7 +1822,7 @@
       <c r="AW25" s="8"/>
       <c r="AX25" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
@@ -1919,7 +1874,7 @@
       <c r="AW26" s="8"/>
       <c r="AX26" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="7"/>
@@ -1971,7 +1926,7 @@
       <c r="AW27" s="8"/>
       <c r="AX27" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
@@ -2023,7 +1978,7 @@
       <c r="AW28" s="8"/>
       <c r="AX28" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
@@ -2075,7 +2030,7 @@
       <c r="AW29" s="8"/>
       <c r="AX29" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="7"/>
@@ -2127,7 +2082,7 @@
       <c r="AW30" s="8"/>
       <c r="AX30" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
@@ -2179,7 +2134,7 @@
       <c r="AW31" s="8"/>
       <c r="AX31" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
@@ -2231,7 +2186,7 @@
       <c r="AW32" s="8"/>
       <c r="AX32" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="7"/>
@@ -2283,7 +2238,7 @@
       <c r="AW33" s="8"/>
       <c r="AX33" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
@@ -2335,7 +2290,7 @@
       <c r="AW34" s="8"/>
       <c r="AX34" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
@@ -2387,7 +2342,7 @@
       <c r="AW35" s="8"/>
       <c r="AX35" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -2439,7 +2394,7 @@
       <c r="AW36" s="8"/>
       <c r="AX36" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
@@ -2491,7 +2446,7 @@
       <c r="AW37" s="8"/>
       <c r="AX37" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
@@ -2543,7 +2498,7 @@
       <c r="AW38" s="8"/>
       <c r="AX38" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
@@ -2595,7 +2550,7 @@
       <c r="AW39" s="8"/>
       <c r="AX39" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
@@ -2647,7 +2602,7 @@
       <c r="AW40" s="8"/>
       <c r="AX40" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="7"/>
@@ -2699,7 +2654,7 @@
       <c r="AW41" s="8"/>
       <c r="AX41" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="7"/>
@@ -2751,7 +2706,7 @@
       <c r="AW42" s="8"/>
       <c r="AX42" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="7"/>
@@ -2803,7 +2758,7 @@
       <c r="AW43" s="8"/>
       <c r="AX43" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="7"/>
@@ -2855,7 +2810,7 @@
       <c r="AW44" s="8"/>
       <c r="AX44" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="7"/>
@@ -2907,7 +2862,7 @@
       <c r="AW45" s="8"/>
       <c r="AX45" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="7"/>
@@ -2959,7 +2914,7 @@
       <c r="AW46" s="8"/>
       <c r="AX46" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="7"/>
@@ -3011,7 +2966,7 @@
       <c r="AW47" s="8"/>
       <c r="AX47" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="7"/>
@@ -3063,7 +3018,7 @@
       <c r="AW48" s="8"/>
       <c r="AX48" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="7"/>
@@ -3115,7 +3070,7 @@
       <c r="AW49" s="8"/>
       <c r="AX49" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="7"/>
@@ -3167,7 +3122,7 @@
       <c r="AW50" s="8"/>
       <c r="AX50" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="7"/>
@@ -3219,7 +3174,7 @@
       <c r="AW51" s="8"/>
       <c r="AX51" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -3271,7 +3226,7 @@
       <c r="AW52" s="8"/>
       <c r="AX52" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
@@ -3323,7 +3278,7 @@
       <c r="AW53" s="8"/>
       <c r="AX53" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -3375,7 +3330,7 @@
       <c r="AW54" s="8"/>
       <c r="AX54" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -3427,7 +3382,7 @@
       <c r="AW55" s="8"/>
       <c r="AX55" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -3479,7 +3434,7 @@
       <c r="AW56" s="8"/>
       <c r="AX56" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -3531,7 +3486,7 @@
       <c r="AW57" s="8"/>
       <c r="AX57" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -3583,7 +3538,7 @@
       <c r="AW58" s="8"/>
       <c r="AX58" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -3635,7 +3590,7 @@
       <c r="AW59" s="8"/>
       <c r="AX59" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -3687,7 +3642,7 @@
       <c r="AW60" s="8"/>
       <c r="AX60" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -3739,7 +3694,7 @@
       <c r="AW61" s="8"/>
       <c r="AX61" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -3791,7 +3746,7 @@
       <c r="AW62" s="8"/>
       <c r="AX62" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -3843,7 +3798,7 @@
       <c r="AW63" s="8"/>
       <c r="AX63" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -3895,7 +3850,7 @@
       <c r="AW64" s="8"/>
       <c r="AX64" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -3947,7 +3902,7 @@
       <c r="AW65" s="8"/>
       <c r="AX65" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -3999,7 +3954,7 @@
       <c r="AW66" s="8"/>
       <c r="AX66" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -4051,7 +4006,7 @@
       <c r="AW67" s="8"/>
       <c r="AX67" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -4103,7 +4058,7 @@
       <c r="AW68" s="8"/>
       <c r="AX68" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -4155,7 +4110,7 @@
       <c r="AW69" s="8"/>
       <c r="AX69" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -4207,7 +4162,7 @@
       <c r="AW70" s="8"/>
       <c r="AX70" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -4259,7 +4214,7 @@
       <c r="AW71" s="8"/>
       <c r="AX71" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -4311,7 +4266,7 @@
       <c r="AW72" s="8"/>
       <c r="AX72" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -4363,7 +4318,7 @@
       <c r="AW73" s="8"/>
       <c r="AX73" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -4415,7 +4370,7 @@
       <c r="AW74" s="8"/>
       <c r="AX74" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -4467,7 +4422,7 @@
       <c r="AW75" s="8"/>
       <c r="AX75" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -4519,7 +4474,7 @@
       <c r="AW76" s="8"/>
       <c r="AX76" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -4571,7 +4526,7 @@
       <c r="AW77" s="8"/>
       <c r="AX77" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -4623,7 +4578,7 @@
       <c r="AW78" s="8"/>
       <c r="AX78" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -4675,7 +4630,7 @@
       <c r="AW79" s="8"/>
       <c r="AX79" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -4727,7 +4682,7 @@
       <c r="AW80" s="8"/>
       <c r="AX80" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -4779,7 +4734,7 @@
       <c r="AW81" s="8"/>
       <c r="AX81" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -4831,7 +4786,7 @@
       <c r="AW82" s="8"/>
       <c r="AX82" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -4883,7 +4838,7 @@
       <c r="AW83" s="8"/>
       <c r="AX83" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -4935,7 +4890,7 @@
       <c r="AW84" s="8"/>
       <c r="AX84" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -4987,7 +4942,7 @@
       <c r="AW85" s="8"/>
       <c r="AX85" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -5039,7 +4994,7 @@
       <c r="AW86" s="8"/>
       <c r="AX86" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -5091,7 +5046,7 @@
       <c r="AW87" s="8"/>
       <c r="AX87" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -5143,7 +5098,7 @@
       <c r="AW88" s="8"/>
       <c r="AX88" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -5195,7 +5150,7 @@
       <c r="AW89" s="8"/>
       <c r="AX89" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -5247,7 +5202,7 @@
       <c r="AW90" s="8"/>
       <c r="AX90" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -5299,7 +5254,7 @@
       <c r="AW91" s="8"/>
       <c r="AX91" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -5351,7 +5306,7 @@
       <c r="AW92" s="8"/>
       <c r="AX92" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -5403,7 +5358,7 @@
       <c r="AW93" s="8"/>
       <c r="AX93" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -5455,7 +5410,7 @@
       <c r="AW94" s="8"/>
       <c r="AX94" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -5507,7 +5462,7 @@
       <c r="AW95" s="8"/>
       <c r="AX95" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -5559,7 +5514,7 @@
       <c r="AW96" s="8"/>
       <c r="AX96" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -5611,7 +5566,7 @@
       <c r="AW97" s="8"/>
       <c r="AX97" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -5663,7 +5618,7 @@
       <c r="AW98" s="8"/>
       <c r="AX98" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -5715,7 +5670,7 @@
       <c r="AW99" s="8"/>
       <c r="AX99" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -5767,7 +5722,7 @@
       <c r="AW100" s="8"/>
       <c r="AX100" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -5819,7 +5774,7 @@
       <c r="AW101" s="8"/>
       <c r="AX101" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -5871,7 +5826,7 @@
       <c r="AW102" s="8"/>
       <c r="AX102" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -5923,7 +5878,7 @@
       <c r="AW103" s="8"/>
       <c r="AX103" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -5975,7 +5930,7 @@
       <c r="AW104" s="8"/>
       <c r="AX104" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -6027,7 +5982,7 @@
       <c r="AW105" s="8"/>
       <c r="AX105" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -6079,7 +6034,7 @@
       <c r="AW106" s="8"/>
       <c r="AX106" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -6131,7 +6086,7 @@
       <c r="AW107" s="8"/>
       <c r="AX107" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -6183,7 +6138,7 @@
       <c r="AW108" s="8"/>
       <c r="AX108" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -6235,7 +6190,7 @@
       <c r="AW109" s="8"/>
       <c r="AX109" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -6287,7 +6242,7 @@
       <c r="AW110" s="8"/>
       <c r="AX110" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -6339,7 +6294,7 @@
       <c r="AW111" s="8"/>
       <c r="AX111" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -6391,7 +6346,7 @@
       <c r="AW112" s="8"/>
       <c r="AX112" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -6443,7 +6398,7 @@
       <c r="AW113" s="8"/>
       <c r="AX113" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -6495,7 +6450,7 @@
       <c r="AW114" s="8"/>
       <c r="AX114" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -6547,7 +6502,7 @@
       <c r="AW115" s="8"/>
       <c r="AX115" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -6599,7 +6554,7 @@
       <c r="AW116" s="8"/>
       <c r="AX116" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -6651,7 +6606,7 @@
       <c r="AW117" s="8"/>
       <c r="AX117" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -6703,7 +6658,7 @@
       <c r="AW118" s="8"/>
       <c r="AX118" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -6755,7 +6710,7 @@
       <c r="AW119" s="8"/>
       <c r="AX119" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -6807,7 +6762,7 @@
       <c r="AW120" s="8"/>
       <c r="AX120" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -6859,7 +6814,7 @@
       <c r="AW121" s="8"/>
       <c r="AX121" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -6911,7 +6866,7 @@
       <c r="AW122" s="8"/>
       <c r="AX122" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -6963,7 +6918,7 @@
       <c r="AW123" s="8"/>
       <c r="AX123" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -7015,7 +6970,7 @@
       <c r="AW124" s="8"/>
       <c r="AX124" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -7067,7 +7022,7 @@
       <c r="AW125" s="8"/>
       <c r="AX125" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -7119,7 +7074,7 @@
       <c r="AW126" s="8"/>
       <c r="AX126" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -7171,7 +7126,7 @@
       <c r="AW127" s="8"/>
       <c r="AX127" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -7223,7 +7178,7 @@
       <c r="AW128" s="8"/>
       <c r="AX128" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -7275,7 +7230,7 @@
       <c r="AW129" s="8"/>
       <c r="AX129" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -7327,7 +7282,7 @@
       <c r="AW130" s="8"/>
       <c r="AX130" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row r="131" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -7379,7 +7334,7 @@
       <c r="AW131" s="8"/>
       <c r="AX131" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row r="132" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -7431,7 +7386,7 @@
       <c r="AW132" s="8"/>
       <c r="AX132" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row r="133" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -7483,7 +7438,7 @@
       <c r="AW133" s="8"/>
       <c r="AX133" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    <row r="134" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -7535,7 +7490,7 @@
       <c r="AW134" s="8"/>
       <c r="AX134" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row r="135" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -7587,7 +7542,7 @@
       <c r="AW135" s="8"/>
       <c r="AX135" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row r="136" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -7639,7 +7594,7 @@
       <c r="AW136" s="8"/>
       <c r="AX136" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row r="137" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -7691,7 +7646,7 @@
       <c r="AW137" s="8"/>
       <c r="AX137" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row r="138" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -7743,7 +7698,7 @@
       <c r="AW138" s="8"/>
       <c r="AX138" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+    <row r="139" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -7795,7 +7750,7 @@
       <c r="AW139" s="8"/>
       <c r="AX139" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row r="140" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -7847,7 +7802,7 @@
       <c r="AW140" s="8"/>
       <c r="AX140" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    <row r="141" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -7899,7 +7854,7 @@
       <c r="AW141" s="8"/>
       <c r="AX141" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row r="142" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -7951,7 +7906,7 @@
       <c r="AW142" s="8"/>
       <c r="AX142" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row r="143" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -8003,7 +7958,7 @@
       <c r="AW143" s="8"/>
       <c r="AX143" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    <row r="144" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -8055,7 +8010,7 @@
       <c r="AW144" s="8"/>
       <c r="AX144" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+    <row r="145" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -8107,7 +8062,7 @@
       <c r="AW145" s="8"/>
       <c r="AX145" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+    <row r="146" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -8159,7 +8114,7 @@
       <c r="AW146" s="8"/>
       <c r="AX146" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -8211,7 +8166,7 @@
       <c r="AW147" s="8"/>
       <c r="AX147" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -8263,7 +8218,7 @@
       <c r="AW148" s="8"/>
       <c r="AX148" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -8315,7 +8270,7 @@
       <c r="AW149" s="8"/>
       <c r="AX149" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    <row r="150" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -8367,7 +8322,7 @@
       <c r="AW150" s="8"/>
       <c r="AX150" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row r="151" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3"/>
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>
@@ -8419,7 +8374,7 @@
       <c r="AW151" s="8"/>
       <c r="AX151" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    <row r="152" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3"/>
       <c r="B152" s="4"/>
       <c r="C152" s="7"/>
@@ -8471,7 +8426,7 @@
       <c r="AW152" s="8"/>
       <c r="AX152" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    <row r="153" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
       <c r="C153" s="7"/>
@@ -8523,7 +8478,7 @@
       <c r="AW153" s="8"/>
       <c r="AX153" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+    <row r="154" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3"/>
       <c r="B154" s="4"/>
       <c r="C154" s="7"/>
@@ -8575,7 +8530,7 @@
       <c r="AW154" s="8"/>
       <c r="AX154" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+    <row r="155" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
       <c r="C155" s="7"/>
@@ -8627,7 +8582,7 @@
       <c r="AW155" s="8"/>
       <c r="AX155" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+    <row r="156" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
       <c r="C156" s="7"/>
@@ -8679,7 +8634,7 @@
       <c r="AW156" s="8"/>
       <c r="AX156" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+    <row r="157" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
       <c r="C157" s="7"/>
@@ -8731,7 +8686,7 @@
       <c r="AW157" s="8"/>
       <c r="AX157" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    <row r="158" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
       <c r="C158" s="7"/>
@@ -8783,7 +8738,7 @@
       <c r="AW158" s="8"/>
       <c r="AX158" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+    <row r="159" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3"/>
       <c r="B159" s="4"/>
       <c r="C159" s="7"/>
@@ -8835,7 +8790,7 @@
       <c r="AW159" s="8"/>
       <c r="AX159" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+    <row r="160" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
       <c r="C160" s="7"/>
@@ -8887,7 +8842,7 @@
       <c r="AW160" s="8"/>
       <c r="AX160" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+    <row r="161" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
       <c r="C161" s="7"/>
@@ -8939,7 +8894,7 @@
       <c r="AW161" s="8"/>
       <c r="AX161" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+    <row r="162" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
       <c r="C162" s="7"/>
@@ -8991,7 +8946,7 @@
       <c r="AW162" s="8"/>
       <c r="AX162" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+    <row r="163" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
       <c r="C163" s="7"/>
@@ -9043,7 +8998,7 @@
       <c r="AW163" s="8"/>
       <c r="AX163" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+    <row r="164" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3"/>
       <c r="B164" s="4"/>
       <c r="C164" s="7"/>
@@ -9095,7 +9050,7 @@
       <c r="AW164" s="8"/>
       <c r="AX164" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+    <row r="165" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3"/>
       <c r="B165" s="4"/>
       <c r="C165" s="7"/>
@@ -9147,7 +9102,7 @@
       <c r="AW165" s="8"/>
       <c r="AX165" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+    <row r="166" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3"/>
       <c r="B166" s="4"/>
       <c r="C166" s="7"/>
@@ -9199,7 +9154,7 @@
       <c r="AW166" s="8"/>
       <c r="AX166" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+    <row r="167" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3"/>
       <c r="B167" s="4"/>
       <c r="C167" s="7"/>
@@ -9251,7 +9206,7 @@
       <c r="AW167" s="8"/>
       <c r="AX167" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row r="168" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
       <c r="C168" s="7"/>
@@ -9303,7 +9258,7 @@
       <c r="AW168" s="8"/>
       <c r="AX168" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    <row r="169" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3"/>
       <c r="B169" s="4"/>
       <c r="C169" s="7"/>
@@ -9355,7 +9310,7 @@
       <c r="AW169" s="8"/>
       <c r="AX169" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+    <row r="170" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3"/>
       <c r="B170" s="4"/>
       <c r="C170" s="7"/>
@@ -9407,7 +9362,7 @@
       <c r="AW170" s="8"/>
       <c r="AX170" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+    <row r="171" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
       <c r="C171" s="7"/>
@@ -9459,7 +9414,7 @@
       <c r="AW171" s="8"/>
       <c r="AX171" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+    <row r="172" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" s="7"/>
@@ -9511,7 +9466,7 @@
       <c r="AW172" s="8"/>
       <c r="AX172" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+    <row r="173" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
       <c r="C173" s="7"/>
@@ -9563,7 +9518,7 @@
       <c r="AW173" s="8"/>
       <c r="AX173" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    <row r="174" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3"/>
       <c r="B174" s="4"/>
       <c r="C174" s="7"/>
@@ -9615,7 +9570,7 @@
       <c r="AW174" s="8"/>
       <c r="AX174" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+    <row r="175" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
       <c r="C175" s="7"/>
@@ -9667,7 +9622,7 @@
       <c r="AW175" s="8"/>
       <c r="AX175" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+    <row r="176" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
       <c r="C176" s="7"/>
@@ -9719,7 +9674,7 @@
       <c r="AW176" s="8"/>
       <c r="AX176" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    <row r="177" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3"/>
       <c r="B177" s="4"/>
       <c r="C177" s="7"/>
@@ -9771,7 +9726,7 @@
       <c r="AW177" s="8"/>
       <c r="AX177" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    <row r="178" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3"/>
       <c r="B178" s="4"/>
       <c r="C178" s="7"/>
@@ -9823,7 +9778,7 @@
       <c r="AW178" s="8"/>
       <c r="AX178" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row r="179" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="3"/>
       <c r="B179" s="4"/>
       <c r="C179" s="7"/>
@@ -9875,7 +9830,7 @@
       <c r="AW179" s="8"/>
       <c r="AX179" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+    <row r="180" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3"/>
       <c r="B180" s="4"/>
       <c r="C180" s="7"/>
@@ -9927,7 +9882,7 @@
       <c r="AW180" s="8"/>
       <c r="AX180" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row r="181" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="3"/>
       <c r="B181" s="4"/>
       <c r="C181" s="7"/>
@@ -9979,7 +9934,7 @@
       <c r="AW181" s="8"/>
       <c r="AX181" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+    <row r="182" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" s="7"/>
@@ -10031,7 +9986,7 @@
       <c r="AW182" s="8"/>
       <c r="AX182" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+    <row r="183" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="3"/>
       <c r="B183" s="4"/>
       <c r="C183" s="7"/>
@@ -10083,7 +10038,7 @@
       <c r="AW183" s="8"/>
       <c r="AX183" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+    <row r="184" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3"/>
       <c r="B184" s="4"/>
       <c r="C184" s="7"/>
@@ -10135,7 +10090,7 @@
       <c r="AW184" s="8"/>
       <c r="AX184" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+    <row r="185" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
       <c r="C185" s="7"/>
@@ -10187,7 +10142,7 @@
       <c r="AW185" s="8"/>
       <c r="AX185" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+    <row r="186" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3"/>
       <c r="B186" s="4"/>
       <c r="C186" s="7"/>
@@ -10239,7 +10194,7 @@
       <c r="AW186" s="8"/>
       <c r="AX186" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row r="187" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="3"/>
       <c r="B187" s="4"/>
       <c r="C187" s="7"/>
@@ -10291,7 +10246,7 @@
       <c r="AW187" s="8"/>
       <c r="AX187" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+    <row r="188" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3"/>
       <c r="B188" s="4"/>
       <c r="C188" s="7"/>
@@ -10343,7 +10298,7 @@
       <c r="AW188" s="8"/>
       <c r="AX188" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+    <row r="189" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="3"/>
       <c r="B189" s="4"/>
       <c r="C189" s="7"/>
@@ -10395,7 +10350,7 @@
       <c r="AW189" s="8"/>
       <c r="AX189" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+    <row r="190" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3"/>
       <c r="B190" s="4"/>
       <c r="C190" s="7"/>
@@ -10447,7 +10402,7 @@
       <c r="AW190" s="8"/>
       <c r="AX190" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+    <row r="191" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="3"/>
       <c r="B191" s="4"/>
       <c r="C191" s="7"/>
@@ -10499,7 +10454,7 @@
       <c r="AW191" s="8"/>
       <c r="AX191" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+    <row r="192" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="3"/>
       <c r="B192" s="4"/>
       <c r="C192" s="7"/>
@@ -10551,7 +10506,7 @@
       <c r="AW192" s="8"/>
       <c r="AX192" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+    <row r="193" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="3"/>
       <c r="B193" s="4"/>
       <c r="C193" s="7"/>
@@ -10603,7 +10558,7 @@
       <c r="AW193" s="8"/>
       <c r="AX193" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+    <row r="194" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="3"/>
       <c r="B194" s="4"/>
       <c r="C194" s="7"/>
@@ -10655,7 +10610,7 @@
       <c r="AW194" s="8"/>
       <c r="AX194" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+    <row r="195" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="3"/>
       <c r="B195" s="4"/>
       <c r="C195" s="7"/>
@@ -10707,7 +10662,7 @@
       <c r="AW195" s="8"/>
       <c r="AX195" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+    <row r="196" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="3"/>
       <c r="B196" s="4"/>
       <c r="C196" s="7"/>
@@ -10759,7 +10714,7 @@
       <c r="AW196" s="8"/>
       <c r="AX196" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+    <row r="197" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="3"/>
       <c r="B197" s="4"/>
       <c r="C197" s="7"/>
@@ -10811,7 +10766,7 @@
       <c r="AW197" s="8"/>
       <c r="AX197" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+    <row r="198" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="3"/>
       <c r="B198" s="4"/>
       <c r="C198" s="7"/>
@@ -10863,7 +10818,7 @@
       <c r="AW198" s="8"/>
       <c r="AX198" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+    <row r="199" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="3"/>
       <c r="B199" s="4"/>
       <c r="C199" s="7"/>
@@ -10915,7 +10870,7 @@
       <c r="AW199" s="8"/>
       <c r="AX199" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+    <row r="200" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="3"/>
       <c r="B200" s="4"/>
       <c r="C200" s="7"/>
@@ -10967,7 +10922,7 @@
       <c r="AW200" s="8"/>
       <c r="AX200" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+    <row r="201" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="3"/>
       <c r="B201" s="4"/>
       <c r="C201" s="7"/>
@@ -11019,7 +10974,7 @@
       <c r="AW201" s="8"/>
       <c r="AX201" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+    <row r="202" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="3"/>
       <c r="B202" s="4"/>
       <c r="C202" s="7"/>
@@ -11071,7 +11026,7 @@
       <c r="AW202" s="8"/>
       <c r="AX202" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+    <row r="203" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="3"/>
       <c r="B203" s="4"/>
       <c r="C203" s="7"/>
@@ -11123,7 +11078,7 @@
       <c r="AW203" s="8"/>
       <c r="AX203" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+    <row r="204" spans="1:50" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="3"/>
       <c r="B204" s="4"/>
       <c r="C204" s="7"/>
@@ -11176,6 +11131,7 @@
       <c r="AX204" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>